--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il15-Il2rg.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il15-Il2rg.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.27738566666667</v>
+        <v>6.654043666666666</v>
       </c>
       <c r="H2">
-        <v>30.832157</v>
+        <v>19.962131</v>
       </c>
       <c r="I2">
-        <v>0.3571200664977529</v>
+        <v>0.3091924566209486</v>
       </c>
       <c r="J2">
-        <v>0.3571200664977528</v>
+        <v>0.3091924566209486</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.55401366666667</v>
+        <v>43.68636333333333</v>
       </c>
       <c r="N2">
-        <v>73.662041</v>
+        <v>131.05909</v>
       </c>
       <c r="O2">
-        <v>0.2501033965205259</v>
+        <v>0.4655970190670373</v>
       </c>
       <c r="P2">
-        <v>0.250103396520526</v>
+        <v>0.4655970190670373</v>
       </c>
       <c r="Q2">
-        <v>252.3510681169375</v>
+        <v>290.6909692578656</v>
       </c>
       <c r="R2">
-        <v>2271.159613052437</v>
+        <v>2616.21872332079</v>
       </c>
       <c r="S2">
-        <v>0.08931694159672407</v>
+        <v>0.1439590861207279</v>
       </c>
       <c r="T2">
-        <v>0.08931694159672407</v>
+        <v>0.1439590861207279</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.27738566666667</v>
+        <v>6.654043666666666</v>
       </c>
       <c r="H3">
-        <v>30.832157</v>
+        <v>19.962131</v>
       </c>
       <c r="I3">
-        <v>0.3571200664977529</v>
+        <v>0.3091924566209486</v>
       </c>
       <c r="J3">
-        <v>0.3571200664977528</v>
+        <v>0.3091924566209486</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>3.615614</v>
       </c>
       <c r="O3">
-        <v>0.01227602886956614</v>
+        <v>0.01284473362738172</v>
       </c>
       <c r="P3">
-        <v>0.01227602886956614</v>
+        <v>0.01284473362738172</v>
       </c>
       <c r="Q3">
-        <v>12.38635316659978</v>
+        <v>8.019484479270444</v>
       </c>
       <c r="R3">
-        <v>111.477178499398</v>
+        <v>72.175360313434</v>
       </c>
       <c r="S3">
-        <v>0.004384016246227794</v>
+        <v>0.003971494744891862</v>
       </c>
       <c r="T3">
-        <v>0.004384016246227794</v>
+        <v>0.003971494744891862</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.27738566666667</v>
+        <v>6.654043666666666</v>
       </c>
       <c r="H4">
-        <v>30.832157</v>
+        <v>19.962131</v>
       </c>
       <c r="I4">
-        <v>0.3571200664977529</v>
+        <v>0.3091924566209486</v>
       </c>
       <c r="J4">
-        <v>0.3571200664977528</v>
+        <v>0.3091924566209486</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.078950333333333</v>
+        <v>4.981224333333333</v>
       </c>
       <c r="N4">
-        <v>15.236851</v>
+        <v>14.943673</v>
       </c>
       <c r="O4">
-        <v>0.0517334048262004</v>
+        <v>0.05308849315764798</v>
       </c>
       <c r="P4">
-        <v>0.05173340482620041</v>
+        <v>0.05308849315764799</v>
       </c>
       <c r="Q4">
-        <v>52.19833135751189</v>
+        <v>33.14528422746255</v>
       </c>
       <c r="R4">
-        <v>469.784982217607</v>
+        <v>298.307558047163</v>
       </c>
       <c r="S4">
-        <v>0.01847503697168786</v>
+        <v>0.0164145616177176</v>
       </c>
       <c r="T4">
-        <v>0.01847503697168786</v>
+        <v>0.0164145616177176</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.27738566666667</v>
+        <v>6.654043666666666</v>
       </c>
       <c r="H5">
-        <v>30.832157</v>
+        <v>19.962131</v>
       </c>
       <c r="I5">
-        <v>0.3571200664977529</v>
+        <v>0.3091924566209486</v>
       </c>
       <c r="J5">
-        <v>0.3571200664977528</v>
+        <v>0.3091924566209486</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>67.337282</v>
+        <v>43.95590833333333</v>
       </c>
       <c r="N5">
-        <v>202.011846</v>
+        <v>131.867725</v>
       </c>
       <c r="O5">
-        <v>0.6858871697837075</v>
+        <v>0.4684697541479331</v>
       </c>
       <c r="P5">
-        <v>0.6858871697837076</v>
+        <v>0.4684697541479331</v>
       </c>
       <c r="Q5">
-        <v>692.0512168590914</v>
+        <v>292.4845334579972</v>
       </c>
       <c r="R5">
-        <v>6228.460951731822</v>
+        <v>2632.360801121975</v>
       </c>
       <c r="S5">
-        <v>0.2449440716831131</v>
+        <v>0.1448473141376112</v>
       </c>
       <c r="T5">
-        <v>0.2449440716831131</v>
+        <v>0.1448473141376113</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>5.961398</v>
       </c>
       <c r="I6">
-        <v>0.0690491700006448</v>
+        <v>0.09233579784218476</v>
       </c>
       <c r="J6">
-        <v>0.0690491700006448</v>
+        <v>0.09233579784218476</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.55401366666667</v>
+        <v>43.68636333333333</v>
       </c>
       <c r="N6">
-        <v>73.662041</v>
+        <v>131.05909</v>
       </c>
       <c r="O6">
-        <v>0.2501033965205259</v>
+        <v>0.4655970190670373</v>
       </c>
       <c r="P6">
-        <v>0.250103396520526</v>
+        <v>0.4655970190670373</v>
       </c>
       <c r="Q6">
-        <v>48.79208265481311</v>
+        <v>86.81059966753556</v>
       </c>
       <c r="R6">
-        <v>439.128743893318</v>
+        <v>781.2953970078199</v>
       </c>
       <c r="S6">
-        <v>0.01726943194408447</v>
+        <v>0.0429912722284978</v>
       </c>
       <c r="T6">
-        <v>0.01726943194408447</v>
+        <v>0.0429912722284978</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>5.961398</v>
       </c>
       <c r="I7">
-        <v>0.0690491700006448</v>
+        <v>0.09233579784218476</v>
       </c>
       <c r="J7">
-        <v>0.0690491700006448</v>
+        <v>0.09233579784218476</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>3.615614</v>
       </c>
       <c r="O7">
-        <v>0.01227602886956614</v>
+        <v>0.01284473362738172</v>
       </c>
       <c r="P7">
-        <v>0.01227602886956614</v>
+        <v>0.01284473362738172</v>
       </c>
       <c r="Q7">
         <v>2.394901563152445</v>
@@ -883,10 +883,10 @@
         <v>21.554114068372</v>
       </c>
       <c r="S7">
-        <v>0.000847649604347496</v>
+        <v>0.001186028727554631</v>
       </c>
       <c r="T7">
-        <v>0.0008476496043474961</v>
+        <v>0.001186028727554631</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>5.961398</v>
       </c>
       <c r="I8">
-        <v>0.0690491700006448</v>
+        <v>0.09233579784218476</v>
       </c>
       <c r="J8">
-        <v>0.0690491700006448</v>
+        <v>0.09233579784218476</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.078950333333333</v>
+        <v>4.981224333333333</v>
       </c>
       <c r="N8">
-        <v>15.236851</v>
+        <v>14.943673</v>
       </c>
       <c r="O8">
-        <v>0.0517334048262004</v>
+        <v>0.05308849315764798</v>
       </c>
       <c r="P8">
-        <v>0.05173340482620041</v>
+        <v>0.05308849315764799</v>
       </c>
       <c r="Q8">
-        <v>10.09254811974422</v>
+        <v>9.898353592761556</v>
       </c>
       <c r="R8">
-        <v>90.832933077698</v>
+        <v>89.085182334854</v>
       </c>
       <c r="S8">
-        <v>0.00357214866455649</v>
+        <v>0.004901968371950793</v>
       </c>
       <c r="T8">
-        <v>0.00357214866455649</v>
+        <v>0.004901968371950794</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>5.961398</v>
       </c>
       <c r="I9">
-        <v>0.0690491700006448</v>
+        <v>0.09233579784218476</v>
       </c>
       <c r="J9">
-        <v>0.0690491700006448</v>
+        <v>0.09233579784218476</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>67.337282</v>
+        <v>43.95590833333333</v>
       </c>
       <c r="N9">
-        <v>202.011846</v>
+        <v>131.867725</v>
       </c>
       <c r="O9">
-        <v>0.6858871697837075</v>
+        <v>0.4684697541479331</v>
       </c>
       <c r="P9">
-        <v>0.6858871697837076</v>
+        <v>0.4684697541479331</v>
       </c>
       <c r="Q9">
-        <v>133.8081127467453</v>
+        <v>87.34622134217223</v>
       </c>
       <c r="R9">
-        <v>1204.273014720708</v>
+        <v>786.11599207955</v>
       </c>
       <c r="S9">
-        <v>0.04735993978765634</v>
+        <v>0.04325652851418155</v>
       </c>
       <c r="T9">
-        <v>0.04735993978765635</v>
+        <v>0.04325652851418155</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.8040576666666667</v>
+        <v>0.9593116666666667</v>
       </c>
       <c r="H10">
-        <v>2.412173</v>
+        <v>2.877935</v>
       </c>
       <c r="I10">
-        <v>0.02793951075703474</v>
+        <v>0.04457619242381535</v>
       </c>
       <c r="J10">
-        <v>0.02793951075703474</v>
+        <v>0.04457619242381536</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.55401366666667</v>
+        <v>43.68636333333333</v>
       </c>
       <c r="N10">
-        <v>73.662041</v>
+        <v>131.05909</v>
       </c>
       <c r="O10">
-        <v>0.2501033965205259</v>
+        <v>0.4655970190670373</v>
       </c>
       <c r="P10">
-        <v>0.250103396520526</v>
+        <v>0.4655970190670373</v>
       </c>
       <c r="Q10">
-        <v>19.74284293612144</v>
+        <v>41.90883801990555</v>
       </c>
       <c r="R10">
-        <v>177.685586425093</v>
+        <v>377.17954217915</v>
       </c>
       <c r="S10">
-        <v>0.006987766537456159</v>
+        <v>0.02075454231388708</v>
       </c>
       <c r="T10">
-        <v>0.006987766537456161</v>
+        <v>0.02075454231388708</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.8040576666666667</v>
+        <v>0.9593116666666667</v>
       </c>
       <c r="H11">
-        <v>2.412173</v>
+        <v>2.877935</v>
       </c>
       <c r="I11">
-        <v>0.02793951075703474</v>
+        <v>0.04457619242381535</v>
       </c>
       <c r="J11">
-        <v>0.02793951075703474</v>
+        <v>0.04457619242381536</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>3.615614</v>
       </c>
       <c r="O11">
-        <v>0.01227602886956614</v>
+        <v>0.01284473362738172</v>
       </c>
       <c r="P11">
-        <v>0.01227602886956614</v>
+        <v>0.01284473362738172</v>
       </c>
       <c r="Q11">
-        <v>0.9690540521357778</v>
+        <v>1.156166897454445</v>
       </c>
       <c r="R11">
-        <v>8.721486469222</v>
+        <v>10.40550207709</v>
       </c>
       <c r="S11">
-        <v>0.0003429862406549122</v>
+        <v>0.0005725693178068193</v>
       </c>
       <c r="T11">
-        <v>0.0003429862406549123</v>
+        <v>0.0005725693178068194</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.8040576666666667</v>
+        <v>0.9593116666666667</v>
       </c>
       <c r="H12">
-        <v>2.412173</v>
+        <v>2.877935</v>
       </c>
       <c r="I12">
-        <v>0.02793951075703474</v>
+        <v>0.04457619242381535</v>
       </c>
       <c r="J12">
-        <v>0.02793951075703474</v>
+        <v>0.04457619242381536</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.078950333333333</v>
+        <v>4.981224333333333</v>
       </c>
       <c r="N12">
-        <v>15.236851</v>
+        <v>14.943673</v>
       </c>
       <c r="O12">
-        <v>0.0517334048262004</v>
+        <v>0.05308849315764798</v>
       </c>
       <c r="P12">
-        <v>0.05173340482620041</v>
+        <v>0.05308849315764799</v>
       </c>
       <c r="Q12">
-        <v>4.083768954135889</v>
+        <v>4.778546617250556</v>
       </c>
       <c r="R12">
-        <v>36.753920587223</v>
+        <v>43.006919555255</v>
       </c>
       <c r="S12">
-        <v>0.001445406020639659</v>
+        <v>0.002366482886485721</v>
       </c>
       <c r="T12">
-        <v>0.001445406020639659</v>
+        <v>0.002366482886485722</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.8040576666666667</v>
+        <v>0.9593116666666667</v>
       </c>
       <c r="H13">
-        <v>2.412173</v>
+        <v>2.877935</v>
       </c>
       <c r="I13">
-        <v>0.02793951075703474</v>
+        <v>0.04457619242381535</v>
       </c>
       <c r="J13">
-        <v>0.02793951075703474</v>
+        <v>0.04457619242381536</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>67.337282</v>
+        <v>43.95590833333333</v>
       </c>
       <c r="N13">
-        <v>202.011846</v>
+        <v>131.867725</v>
       </c>
       <c r="O13">
-        <v>0.6858871697837075</v>
+        <v>0.4684697541479331</v>
       </c>
       <c r="P13">
-        <v>0.6858871697837076</v>
+        <v>0.4684697541479331</v>
       </c>
       <c r="Q13">
-        <v>54.14305784459533</v>
+        <v>42.16741568309723</v>
       </c>
       <c r="R13">
-        <v>487.287520601358</v>
+        <v>379.506741147875</v>
       </c>
       <c r="S13">
-        <v>0.01916335195828401</v>
+        <v>0.02088259790563574</v>
       </c>
       <c r="T13">
-        <v>0.01916335195828401</v>
+        <v>0.02088259790563574</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>15.70994033333333</v>
+        <v>11.92023</v>
       </c>
       <c r="H14">
-        <v>47.129821</v>
+        <v>35.76069</v>
       </c>
       <c r="I14">
-        <v>0.5458912527445675</v>
+        <v>0.5538955531130513</v>
       </c>
       <c r="J14">
-        <v>0.5458912527445675</v>
+        <v>0.5538955531130514</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>24.55401366666667</v>
+        <v>43.68636333333333</v>
       </c>
       <c r="N14">
-        <v>73.662041</v>
+        <v>131.05909</v>
       </c>
       <c r="O14">
-        <v>0.2501033965205259</v>
+        <v>0.4655970190670373</v>
       </c>
       <c r="P14">
-        <v>0.250103396520526</v>
+        <v>0.4655970190670373</v>
       </c>
       <c r="Q14">
-        <v>385.7420896471846</v>
+        <v>520.7514987968999</v>
       </c>
       <c r="R14">
-        <v>3471.678806824661</v>
+        <v>4686.763489172099</v>
       </c>
       <c r="S14">
-        <v>0.1365292564422612</v>
+        <v>0.2578921184039245</v>
       </c>
       <c r="T14">
-        <v>0.1365292564422612</v>
+        <v>0.2578921184039246</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>15.70994033333333</v>
+        <v>11.92023</v>
       </c>
       <c r="H15">
-        <v>47.129821</v>
+        <v>35.76069</v>
       </c>
       <c r="I15">
-        <v>0.5458912527445675</v>
+        <v>0.5538955531130513</v>
       </c>
       <c r="J15">
-        <v>0.5458912527445675</v>
+        <v>0.5538955531130514</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>3.615614</v>
       </c>
       <c r="O15">
-        <v>0.01227602886956614</v>
+        <v>0.01284473362738172</v>
       </c>
       <c r="P15">
-        <v>0.01227602886956614</v>
+        <v>0.01284473362738172</v>
       </c>
       <c r="Q15">
-        <v>18.93369340278822</v>
+        <v>14.36631682374</v>
       </c>
       <c r="R15">
-        <v>170.403240625094</v>
+        <v>129.29685141366</v>
       </c>
       <c r="S15">
-        <v>0.006701376778335938</v>
+        <v>0.007114640837128407</v>
       </c>
       <c r="T15">
-        <v>0.006701376778335939</v>
+        <v>0.007114640837128408</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>15.70994033333333</v>
+        <v>11.92023</v>
       </c>
       <c r="H16">
-        <v>47.129821</v>
+        <v>35.76069</v>
       </c>
       <c r="I16">
-        <v>0.5458912527445675</v>
+        <v>0.5538955531130513</v>
       </c>
       <c r="J16">
-        <v>0.5458912527445675</v>
+        <v>0.5538955531130514</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.078950333333333</v>
+        <v>4.981224333333333</v>
       </c>
       <c r="N16">
-        <v>15.236851</v>
+        <v>14.943673</v>
       </c>
       <c r="O16">
-        <v>0.0517334048262004</v>
+        <v>0.05308849315764798</v>
       </c>
       <c r="P16">
-        <v>0.05173340482620041</v>
+        <v>0.05308849315764799</v>
       </c>
       <c r="Q16">
-        <v>79.79000669263012</v>
+        <v>59.37733973492999</v>
       </c>
       <c r="R16">
-        <v>718.110060233671</v>
+        <v>534.39605761437</v>
       </c>
       <c r="S16">
-        <v>0.02824081316931639</v>
+        <v>0.02940548028149386</v>
       </c>
       <c r="T16">
-        <v>0.0282408131693164</v>
+        <v>0.02940548028149387</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>15.70994033333333</v>
+        <v>11.92023</v>
       </c>
       <c r="H17">
-        <v>47.129821</v>
+        <v>35.76069</v>
       </c>
       <c r="I17">
-        <v>0.5458912527445675</v>
+        <v>0.5538955531130513</v>
       </c>
       <c r="J17">
-        <v>0.5458912527445675</v>
+        <v>0.5538955531130514</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>67.337282</v>
+        <v>43.95590833333333</v>
       </c>
       <c r="N17">
-        <v>202.011846</v>
+        <v>131.867725</v>
       </c>
       <c r="O17">
-        <v>0.6858871697837075</v>
+        <v>0.4684697541479331</v>
       </c>
       <c r="P17">
-        <v>0.6858871697837076</v>
+        <v>0.4684697541479331</v>
       </c>
       <c r="Q17">
-        <v>1057.864682428841</v>
+        <v>523.96453719225</v>
       </c>
       <c r="R17">
-        <v>9520.782141859565</v>
+        <v>4715.680834730249</v>
       </c>
       <c r="S17">
-        <v>0.3744198063546539</v>
+        <v>0.2594833135905045</v>
       </c>
       <c r="T17">
-        <v>0.374419806354654</v>
+        <v>0.2594833135905046</v>
       </c>
     </row>
   </sheetData>
